--- a/NowNew/학_GAI별 특징과 활용.xlsx
+++ b/NowNew/학_GAI별 특징과 활용.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B49D0D-B81B-45E2-A988-B66F2DC411CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687C01E9-2E58-4E95-BD1A-5394CCA46EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 작문영상작곡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>●프롬프트to이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,6 +391,10 @@
   </si>
   <si>
     <t>●해상도★ 로그인불요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. WriteVideo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -605,9 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -896,8 +887,8 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,7 +917,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -936,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -947,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -956,10 +947,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -978,10 +969,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -989,7 +980,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -998,10 +989,10 @@
         <v>44</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,7 +1000,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1025,7 +1016,7 @@
     </row>
     <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -1035,10 +1026,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1046,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1057,7 +1048,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="10"/>
     </row>
@@ -1073,7 +1064,7 @@
     </row>
     <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -1086,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1097,7 +1088,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1108,7 +1099,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1119,7 +1110,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,10 +1118,10 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1158,7 +1149,7 @@
     </row>
     <row r="29" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
@@ -1168,7 +1159,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -1177,10 +1168,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,7 +1182,7 @@
         <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,7 +1193,7 @@
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,7 +1217,7 @@
     </row>
     <row r="37" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -1239,7 +1230,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,7 +1270,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1292,11 +1283,11 @@
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -1305,10 +1296,10 @@
         <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1316,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,7 +1321,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">

--- a/NowNew/학_GAI별 특징과 활용.xlsx
+++ b/NowNew/학_GAI별 특징과 활용.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Pi2Work\NowNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687C01E9-2E58-4E95-BD1A-5394CCA46EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57947BB3-25AD-48A9-9DDF-2E06E46C5917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,18 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>●MidJourney, Adobe Firefly 이미지 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>●이미지생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>●DALL·E 3로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Upscale.media</t>
   </si>
   <si>
@@ -226,22 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>●프롬프트to이미지★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●프롬프트to이미지, 이미지to이미지(저화질)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●이미지생성(slow)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●프롬프트to이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>●5 또는 10초 영상★</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,6 +371,30 @@
   </si>
   <si>
     <t>4. WriteVideo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●프롬프트to이미지★ (속도상, 내용중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●이미지생성★  (속도상, 내용상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●프롬프트to이미지, 이미지to이미지(저화질) (속도상, 내용하)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●DALL·E 3로 생성 (속도상, 내용중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">●MidJourney, Adobe Firefly 이미지 생성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●프롬프트to이미지 (속도하, 내용중/상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,8 +887,8 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,7 +917,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -947,10 +947,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -958,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -969,38 +969,38 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -1026,10 +1026,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1037,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C17" s="10"/>
     </row>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -1074,10 +1074,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1085,32 +1085,32 @@
         <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1118,10 +1118,10 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C26" s="10"/>
     </row>
@@ -1138,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -1149,29 +1149,29 @@
     </row>
     <row r="29" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,29 +1179,29 @@
         <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="37" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -1227,21 +1227,21 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,16 +1249,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -1267,10 +1267,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2"/>
     </row>
@@ -1287,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -1296,10 +1296,10 @@
         <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1307,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1318,10 +1318,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1329,10 +1329,10 @@
         <v>11</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1362,8 +1362,8 @@
     <hyperlink ref="A18" r:id="rId17" display="Canva" xr:uid="{1D903FEB-DB53-43BC-BDD3-631A9E27FA33}"/>
     <hyperlink ref="A17" r:id="rId18" xr:uid="{D8EB12AF-F8BE-4391-A75F-E26E582B4960}"/>
     <hyperlink ref="A26" r:id="rId19" xr:uid="{7F54A0EB-B295-4088-91DB-3B5DC41BF2E0}"/>
-    <hyperlink ref="A24" r:id="rId20" xr:uid="{914178A1-E1F6-4A55-B844-FC3973EE0F00}"/>
-    <hyperlink ref="A23" r:id="rId21" display="Stable Diffusion" xr:uid="{D9C82950-6795-4B8A-836D-72D8367C8EA8}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{914178A1-E1F6-4A55-B844-FC3973EE0F00}"/>
+    <hyperlink ref="A24" r:id="rId21" display="Stable Diffusion" xr:uid="{D9C82950-6795-4B8A-836D-72D8367C8EA8}"/>
     <hyperlink ref="A31" r:id="rId22" xr:uid="{6E010A81-FF3E-44A7-A2F9-41B72F0FCBF3}"/>
     <hyperlink ref="A41" r:id="rId23" xr:uid="{932BCCE4-E615-4EC4-9F26-728F8D59FC95}"/>
     <hyperlink ref="A34" r:id="rId24" xr:uid="{21895D89-C4E7-4C04-9167-5669C7C1E92F}"/>
